--- a/FCF/Costi/Costi_Materia_Previsivi/FCF2_costi_materia_previsivi_IIFCT.xlsx
+++ b/FCF/Costi/Costi_Materia_Previsivi/FCF2_costi_materia_previsivi_IIFCT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://picinformaticait-my.sharepoint.com/personal/mmenchicchi_pic-informatica_it1/Documents/Condivisione ENI PIC/RFCF/FCF2/Insert Into/Qvw e Excel Utili/Costi_Materia_Previsivi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\FCF\Costi\Costi_Materia_Previsivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E9539073-4E3D-4B8C-A9A3-8CEF0C2F9123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{624F60EC-930B-441A-9909-2550AB1F8240}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A37E9-8D59-446B-A795-5A9A64F1203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="21">
-  <si>
-    <t>Comodity</t>
-  </si>
   <si>
     <t>Fornitore</t>
   </si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>FINPOWER WIND</t>
+  </si>
+  <si>
+    <t>Commodity</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6886AB-95AC-4A01-9000-868B512C9297}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,33 +615,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>202206</v>
@@ -656,13 +656,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="6">
         <v>202207</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>202208</v>
@@ -698,13 +698,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>202209</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D6" s="6">
         <v>202210</v>
@@ -740,13 +740,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D7" s="6">
         <v>202211</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D8" s="6">
         <v>202212</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6">
         <v>202206</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6">
         <v>202207</v>
@@ -826,13 +826,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6">
         <v>202208</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6">
         <v>202209</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="6">
         <v>202210</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6">
         <v>202211</v>
@@ -914,13 +914,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6">
         <v>202212</v>
@@ -936,13 +936,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6">
         <v>202206</v>
@@ -958,13 +958,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6">
         <v>202207</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6">
         <v>202208</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6">
         <v>202209</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="6">
         <v>202210</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="6">
         <v>202211</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6">
         <v>202212</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="6">
         <v>202206</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="6">
         <v>202207</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="6">
         <v>202208</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6">
         <v>202209</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6">
         <v>202210</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="6">
         <v>202211</v>
@@ -1222,13 +1222,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="6">
         <v>202212</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6">
         <v>202206</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6">
         <v>202207</v>
@@ -1288,13 +1288,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="6">
         <v>202208</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="6">
         <v>202209</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="6">
         <v>202210</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="6">
         <v>202211</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="6">
         <v>202212</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="6">
         <v>202206</v>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="6">
         <v>202207</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="6">
         <v>202208</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="6">
         <v>202209</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="6">
         <v>202210</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="6">
         <v>202211</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="6">
         <v>202212</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="6">
         <v>202206</v>
@@ -1574,13 +1574,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="6">
         <v>202207</v>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="6">
         <v>202208</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="6">
         <v>202209</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="6">
         <v>202210</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="6">
         <v>202211</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="6">
         <v>202212</v>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="6">
         <v>202206</v>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="6">
         <v>202207</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="6">
         <v>202208</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="6">
         <v>202209</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" s="6">
         <v>202210</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="6">
         <v>202211</v>
@@ -1838,13 +1838,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="6">
         <v>202212</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="6">
         <v>202206</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="6">
         <v>202207</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="6">
         <v>202208</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="6">
         <v>202209</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="6">
         <v>202210</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="6">
         <v>202211</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="6">
         <v>202212</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="6">
         <v>202206</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="6">
         <v>202207</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" s="6">
         <v>202208</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="6">
         <v>202209</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" s="6">
         <v>202210</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" s="6">
         <v>202211</v>
@@ -2146,13 +2146,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" s="6">
         <v>202212</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6">
         <v>202206</v>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" s="6">
         <v>202207</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="6">
         <v>202208</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="6">
         <v>202209</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="6">
         <v>202210</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" s="6">
         <v>202211</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" s="6">
         <v>202212</v>
@@ -2322,13 +2322,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="6">
         <v>202206</v>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" s="6">
         <v>202207</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="6">
         <v>202208</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="6">
         <v>202209</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="6">
         <v>202210</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="6">
         <v>202211</v>
@@ -2442,13 +2442,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="6">
         <v>202212</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="6">
         <v>202206</v>
@@ -2482,13 +2482,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" s="6">
         <v>202207</v>
@@ -2502,13 +2502,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="6">
         <v>202208</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="6">
         <v>202209</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="6">
         <v>202210</v>
@@ -2562,13 +2562,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" s="6">
         <v>202211</v>
@@ -2582,13 +2582,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" s="6">
         <v>202212</v>
